--- a/cfg/玩家信息.xlsx
+++ b/cfg/玩家信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="q_player" sheetId="4" r:id="rId1"/>
@@ -83,7 +83,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>wxdgaming.chargame.server.bean.AttrInfo</t>
+    <t>wxdgaming.spring.gamebase.entity.AttrInfo</t>
   </si>
   <si>
     <t>主键id/等级</t>
@@ -1313,7 +1313,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -1325,7 +1325,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:4">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:4">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:4">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:4">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>4</v>
       </c>
